--- a/docs/COMP30024 Part B Data.xlsx
+++ b/docs/COMP30024 Part B Data.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="89">
   <si>
     <t>Fractions are focussed on red wins/losses v blue. To find blue wins/losses v red, flip fraction.</t>
   </si>
@@ -193,16 +193,13 @@
     <t>Greedy H3</t>
   </si>
   <si>
-    <t>STILL RUNNING MCTS TESTS</t>
-  </si>
-  <si>
     <t>a-B</t>
   </si>
   <si>
     <t>MCTS</t>
   </si>
   <si>
-    <t>Rdm @ agent.a_rdm; ['Rdm: R 23/27, B 27/23', 'Greedy: R 13/37, B 18/32', 'Gr-aB: R 8/42, B 13/37', 'a-B: R 9/41, B 10/40', 'MCTS: R 50/0, B 50/0']</t>
+    <t>Rdm @ agent.a_rdm; ['Rdm: R 23/27, B 27/23', 'Greedy: R 13/37, B 18/32', 'Gr-aB: R 8/42, B 13/37', 'a-B: R 9/41, B 10/40', 'MCTS: R 34/16, B 28/22']</t>
   </si>
   <si>
     <t>23/27</t>
@@ -217,10 +214,10 @@
     <t>40/10</t>
   </si>
   <si>
-    <t>0/50</t>
-  </si>
-  <si>
-    <t>Greedy @ agent.a_greedy; ['Rdm: R 32/18, B 37/13', 'Greedy: R 25/25, B 25/25', 'Gr-aB: R 20/30, B 19/31', 'a-B: R 19/31, B 18/32', 'MCTS: R 50/0, B 50/0']</t>
+    <t>22/28</t>
+  </si>
+  <si>
+    <t>Greedy @ agent.a_greedy; ['Rdm: R 32/18, B 37/13', 'Greedy: R 25/25, B 25/25', 'Gr-aB: R 20/30, B 19/31', 'a-B: R 19/31, B 18/32', 'MCTS: R 43/7, B 32/18']</t>
   </si>
   <si>
     <t>13/37</t>
@@ -232,7 +229,10 @@
     <t>31/19</t>
   </si>
   <si>
-    <t>Gr-aB @ agent.a_grab; ['Rdm: R 37/13, B 42/8', 'Greedy: R 31/19, B 30/20', 'Gr-aB: R 19/31, B 31/19', 'a-B: R 28/22, B 21/29', 'MCTS: R 50/0, B 50/0']</t>
+    <t>18/32</t>
+  </si>
+  <si>
+    <t>Gr-aB @ agent.a_grab; ['Rdm: R 37/13, B 42/8', 'Greedy: R 31/19, B 30/20', 'Gr-aB: R 19/31, B 31/19', 'a-B: R 28/22, B 21/29', 'MCTS: R 37/13, B 46/4']</t>
   </si>
   <si>
     <t>8/42</t>
@@ -247,7 +247,10 @@
     <t>29/21</t>
   </si>
   <si>
-    <t>a-B @ agent.a_a-B; ['Rdm: R 40/10, B 41/9', 'Greedy: R 32/18, B 31/19', 'Gr-aB: R 29/21, B 22/28', 'a-B: R 24/26, B 26/24', 'MCTS: R 50/0, B 50/0']</t>
+    <t>4/46</t>
+  </si>
+  <si>
+    <t>a-B @ agent.a_a-B; ['Rdm: R 40/10, B 41/9', 'Greedy: R 32/18, B 31/19', 'Gr-aB: R 29/21, B 22/28', 'a-B: R 24/26, B 26/24', 'MCTS: R 44/6, B 44/6']</t>
   </si>
   <si>
     <t>9/41</t>
@@ -259,7 +262,22 @@
     <t>24/26</t>
   </si>
   <si>
-    <t>50/0</t>
+    <t>6/44</t>
+  </si>
+  <si>
+    <t>MCTS @ agent.a_mcts; ['Rdm: R 22/28, B 16/34', 'Greedy: R 18/32, B 7/43', 'Gr-aB: R 4/46, B 13/37', 'a-B: R 6/44, B 6/44', 'MCTS: R 15/35, B 35/15']</t>
+  </si>
+  <si>
+    <t>34/16</t>
+  </si>
+  <si>
+    <t>43/7</t>
+  </si>
+  <si>
+    <t>44/6</t>
+  </si>
+  <si>
+    <t>15/35</t>
   </si>
 </sst>
 </file>
@@ -729,6 +747,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
+    <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1030,9 +1049,7 @@
       <c r="I20" s="2"/>
     </row>
     <row r="21">
-      <c r="K21" s="22" t="s">
-        <v>60</v>
-      </c>
+      <c r="K21" s="22"/>
     </row>
     <row r="22">
       <c r="B22" s="4" t="s">
@@ -1048,10 +1065,10 @@
         <v>5</v>
       </c>
       <c r="F22" s="23" t="s">
+        <v>60</v>
+      </c>
+      <c r="G22" s="23" t="s">
         <v>61</v>
-      </c>
-      <c r="G22" s="23" t="s">
-        <v>62</v>
       </c>
       <c r="H22" s="24" t="s">
         <v>6</v>
@@ -1060,7 +1077,7 @@
         <v>7</v>
       </c>
       <c r="K22" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="23">
@@ -1068,30 +1085,30 @@
         <v>1</v>
       </c>
       <c r="C23" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="D23" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="D23" s="3" t="s">
+      <c r="E23" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="E23" s="3" t="s">
+      <c r="F23" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="F23" s="3" t="s">
+      <c r="G23" s="3" t="s">
         <v>67</v>
-      </c>
-      <c r="G23" s="3" t="s">
-        <v>68</v>
       </c>
       <c r="H23" s="26" t="str">
         <f>MINUS_RATIO(I23,C23)</f>
-        <v>109/91</v>
+        <v>131/69</v>
       </c>
       <c r="I23" s="10" t="str">
         <f t="shared" ref="I23:I27" si="1">SUM_RATIO(C23:G23)</f>
-        <v>132/118</v>
+        <v>154/96</v>
       </c>
       <c r="K23" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="24">
@@ -1099,27 +1116,27 @@
         <v>59</v>
       </c>
       <c r="C24" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="D24" s="12" t="s">
         <v>70</v>
       </c>
-      <c r="D24" s="12" t="s">
+      <c r="E24" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="E24" s="1" t="s">
+      <c r="F24" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="G24" s="1" t="s">
         <v>72</v>
-      </c>
-      <c r="F24" s="14" t="s">
-        <v>65</v>
-      </c>
-      <c r="G24" s="1" t="s">
-        <v>68</v>
       </c>
       <c r="H24" s="27" t="str">
         <f>MINUS_RATIO(I24,D24)</f>
-        <v>76/124</v>
+        <v>94/106</v>
       </c>
       <c r="I24" s="15" t="str">
         <f t="shared" si="1"/>
-        <v>101/149</v>
+        <v>119/131</v>
       </c>
       <c r="K24" s="1" t="s">
         <v>73</v>
@@ -1142,74 +1159,77 @@
         <v>77</v>
       </c>
       <c r="G25" s="14" t="s">
-        <v>68</v>
+        <v>78</v>
       </c>
       <c r="H25" s="27" t="str">
         <f>minus_ratio(I25,E25)</f>
-        <v>57/143</v>
+        <v>61/139</v>
       </c>
       <c r="I25" s="15" t="str">
         <f t="shared" si="1"/>
-        <v>76/174</v>
+        <v>80/170</v>
       </c>
       <c r="K25" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="26">
       <c r="B26" s="25" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C26" s="11" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D26" s="14" t="s">
         <v>76</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F26" s="12" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>68</v>
+        <v>83</v>
       </c>
       <c r="H26" s="11" t="str">
         <f>MINUS_RATIO(I26,F26)</f>
-        <v>56/144</v>
+        <v>62/138</v>
       </c>
       <c r="I26" s="15" t="str">
         <f t="shared" si="1"/>
-        <v>80/170</v>
+        <v>86/164</v>
+      </c>
+      <c r="K26" s="1" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="27">
       <c r="B27" s="25" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C27" s="11" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="E27" s="14" t="s">
-        <v>82</v>
+        <v>65</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="G27" s="12" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="H27" s="28" t="str">
         <f>MINUS_RATIO(I27,G27)</f>
-        <v>200/0</v>
+        <v>158/42</v>
       </c>
       <c r="I27" s="18" t="str">
         <f t="shared" si="1"/>
-        <v>250/0</v>
+        <v>173/77</v>
       </c>
     </row>
     <row r="28">
@@ -1218,27 +1238,27 @@
       </c>
       <c r="C28" s="30" t="str">
         <f>MINUS_RATIO(C29,C23)</f>
-        <v>80/120</v>
+        <v>64/136</v>
       </c>
       <c r="D28" s="3" t="str">
         <f>MINUS_RATIO(D29,D24)</f>
-        <v>121/79</v>
+        <v>114/86</v>
       </c>
       <c r="E28" s="3" t="str">
         <f>MINUS_RATIO(E29,E25)</f>
-        <v>146/54</v>
+        <v>133/67</v>
       </c>
       <c r="F28" s="3" t="str">
         <f>MINUS_RATIO(F29,F26)</f>
-        <v>151/49</v>
+        <v>145/55</v>
       </c>
       <c r="G28" s="8" t="str">
         <f>MINUS_RATIO(G29,G27)</f>
-        <v>0/200</v>
+        <v>50/150</v>
       </c>
       <c r="H28" s="31" t="str">
         <f>sum_ratio(H23:H27)</f>
-        <v>498/502</v>
+        <v>506/494</v>
       </c>
       <c r="I28" s="10"/>
     </row>
@@ -1248,31 +1268,34 @@
       </c>
       <c r="C29" s="32" t="str">
         <f t="shared" ref="C29:G29" si="2">SUM_RATIO(C23:C27)</f>
-        <v>103/147</v>
+        <v>87/163</v>
       </c>
       <c r="D29" s="21" t="str">
         <f t="shared" si="2"/>
-        <v>146/104</v>
+        <v>139/111</v>
       </c>
       <c r="E29" s="21" t="str">
         <f t="shared" si="2"/>
-        <v>165/85</v>
+        <v>152/98</v>
       </c>
       <c r="F29" s="21" t="str">
         <f t="shared" si="2"/>
-        <v>175/75</v>
+        <v>169/81</v>
       </c>
       <c r="G29" s="18" t="str">
         <f t="shared" si="2"/>
-        <v>50/200</v>
+        <v>65/185</v>
       </c>
       <c r="H29" s="32"/>
       <c r="I29" s="18" t="str">
         <f>SUM_RATIO(I23:I27)</f>
-        <v>639/611</v>
+        <v>612/638</v>
       </c>
     </row>
   </sheetData>
+  <printOptions gridLines="1" horizontalCentered="1"/>
+  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup fitToHeight="0" cellComments="atEnd" orientation="landscape" pageOrder="overThenDown"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>